--- a/testData/SFI_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFI_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Appointment Date : 02/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 03/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 03/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
   </si>
 </sst>
 </file>
@@ -874,7 +880,7 @@
         <v>50</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>51</v>

--- a/testData/SFI_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFI_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Select Yes or No..?</t>
   </si>
   <si>
-    <t>Choice the value..!</t>
-  </si>
-  <si>
     <t>Tap the mic and record the voice</t>
   </si>
   <si>
@@ -291,16 +288,19 @@
     <t>Hi, Welcome to chat bot..!</t>
   </si>
   <si>
-    <t>Appointment Date : 02/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 02/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 03/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 03/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+    <t>04/11/2023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 09:35 AM to 09:39 AM ]</t>
+  </si>
+  <si>
+    <t>Choose the value..!</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 09:40 AM to 09:44 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 09:45 AM to 09:49 AM ]</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,7 +698,7 @@
         <v>44</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>1</v>
@@ -830,33 +830,33 @@
         <v>27</v>
       </c>
       <c r="AU1" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AV1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="AV1" t="s" s="0">
-        <v>72</v>
-      </c>
       <c r="AW1" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>45</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>46</v>
@@ -868,7 +868,7 @@
         <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>49</v>
@@ -886,16 +886,16 @@
         <v>51</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s" s="0">
         <v>52</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" s="0">
         <v>1234567890</v>
@@ -910,7 +910,7 @@
         <v>55</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="0">
         <v>53</v>
@@ -921,63 +921,65 @@
       <c r="AA2" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AB2" s="0"/>
+      <c r="AB2" t="s" s="0">
+        <v>89</v>
+      </c>
       <c r="AC2" t="s" s="0">
         <v>58</v>
       </c>
       <c r="AD2" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE2" t="s" s="0">
         <v>59</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH2" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI2" t="s" s="0">
         <v>60</v>
       </c>
       <c r="AJ2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="AK2" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AM2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="AN2" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="AM2" t="s" s="0">
+      <c r="AO2" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="AP2" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="AQ2" t="s" s="0">
         <v>61</v>
-      </c>
-      <c r="AN2" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="AO2" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="AP2" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="AQ2" t="s" s="0">
-        <v>62</v>
       </c>
       <c r="AS2" t="s" s="0">
         <v>57</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AU2" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AW2" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SFI_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFI_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -301,6 +301,48 @@
   </si>
   <si>
     <t>Appointment Date : 06/11/2023, Time : [ 09:45 AM to 09:49 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 09:50 AM to 09:54 AM ]</t>
+  </si>
+  <si>
+    <t>06/11/2023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 09:55 AM to 09:59 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 10:00 AM to 10:04 AM ]</t>
+  </si>
+  <si>
+    <t>voice_record_06112023</t>
+  </si>
+  <si>
+    <t>formshow_06112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 10:05 AM to 10:09 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 10:15 AM to 10:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 10:20 AM to 10:24 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 10:25 AM to 10:29 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 10:30 AM to 10:34 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 10:40 AM to 10:44 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 10:45 AM to 10:49 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 10:50 AM to 10:54 AM ]</t>
   </si>
 </sst>
 </file>
@@ -880,7 +922,7 @@
         <v>50</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>51</v>
@@ -922,7 +964,7 @@
         <v>56</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="s" s="0">
         <v>58</v>
@@ -966,6 +1008,9 @@
       <c r="AQ2" t="s" s="0">
         <v>61</v>
       </c>
+      <c r="AR2" t="s" s="0">
+        <v>98</v>
+      </c>
       <c r="AS2" t="s" s="0">
         <v>57</v>
       </c>
@@ -973,7 +1018,7 @@
         <v>65</v>
       </c>
       <c r="AU2" t="s" s="0">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AV2" s="3" t="s">
         <v>74</v>

--- a/testData/SFI_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFI_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="120">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -343,6 +343,42 @@
   </si>
   <si>
     <t>Appointment Date : 06/11/2023, Time : [ 10:50 AM to 10:54 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+  </si>
+  <si>
+    <t>15/11/2023</t>
+  </si>
+  <si>
+    <t>voice_record_15112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:20 AM to 09:24 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:25 AM to 09:29 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:30 AM to 09:34 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:35 AM to 09:39 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:40 AM to 09:44 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:45 AM to 09:49 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:50 AM to 09:54 AM ]</t>
+  </si>
+  <si>
+    <t>formshow_15112023</t>
   </si>
 </sst>
 </file>
@@ -922,7 +958,7 @@
         <v>50</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>51</v>
@@ -964,7 +1000,7 @@
         <v>56</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="AC2" t="s" s="0">
         <v>58</v>
@@ -1009,7 +1045,7 @@
         <v>61</v>
       </c>
       <c r="AR2" t="s" s="0">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="AS2" t="s" s="0">
         <v>57</v>
@@ -1018,7 +1054,7 @@
         <v>65</v>
       </c>
       <c r="AU2" t="s" s="0">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="AV2" s="3" t="s">
         <v>74</v>

--- a/testData/SFI_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFI_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="125">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -379,6 +379,21 @@
   </si>
   <si>
     <t>formshow_15112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>16/11/2023</t>
+  </si>
+  <si>
+    <t>voice_record_16112023</t>
+  </si>
+  <si>
+    <t>formshow_16112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
   </si>
 </sst>
 </file>
@@ -958,7 +973,7 @@
         <v>50</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>51</v>
@@ -1000,7 +1015,7 @@
         <v>56</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AC2" t="s" s="0">
         <v>58</v>
@@ -1045,7 +1060,7 @@
         <v>61</v>
       </c>
       <c r="AR2" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="AS2" t="s" s="0">
         <v>57</v>
@@ -1054,7 +1069,7 @@
         <v>65</v>
       </c>
       <c r="AU2" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AV2" s="3" t="s">
         <v>74</v>

--- a/testData/SFI_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFI_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>Appointment Date : 16/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 20/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 20/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
   </si>
 </sst>
 </file>
@@ -973,7 +982,7 @@
         <v>50</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>51</v>

--- a/testData/SFI_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFI_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="133">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -403,6 +403,21 @@
   </si>
   <si>
     <t>Appointment Date : 20/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 21/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 21/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>21/11/2023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 22/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 21/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
   </si>
 </sst>
 </file>
@@ -982,7 +997,7 @@
         <v>50</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>51</v>
@@ -1024,7 +1039,7 @@
         <v>56</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AC2" t="s" s="0">
         <v>58</v>

--- a/testData/SFI_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFI_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="136">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -418,6 +418,15 @@
   </si>
   <si>
     <t>Appointment Date : 21/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 22/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>22/11/2023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 22/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1006,7 @@
         <v>50</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>51</v>
@@ -1039,7 +1048,7 @@
         <v>56</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AC2" t="s" s="0">
         <v>58</v>

--- a/testData/SFI_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFI_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="119">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Terms and Conditions..!</t>
   </si>
   <si>
-    <t>formshow_31102023</t>
-  </si>
-  <si>
     <t>https://rthree.live/showform?formid=220136&amp;nurams=bot1</t>
   </si>
   <si>
@@ -288,145 +285,97 @@
     <t>Hi, Welcome to chat bot..!</t>
   </si>
   <si>
-    <t>04/11/2023</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 09:35 AM to 09:39 AM ]</t>
-  </si>
-  <si>
     <t>Choose the value..!</t>
   </si>
   <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 09:40 AM to 09:44 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 09:45 AM to 09:49 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 09:50 AM to 09:54 AM ]</t>
-  </si>
-  <si>
-    <t>06/11/2023</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 09:55 AM to 09:59 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 10:00 AM to 10:04 AM ]</t>
-  </si>
-  <si>
-    <t>voice_record_06112023</t>
-  </si>
-  <si>
-    <t>formshow_06112023</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 10:05 AM to 10:09 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 10:15 AM to 10:19 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 10:20 AM to 10:24 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 10:25 AM to 10:29 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 10:30 AM to 10:34 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 10:40 AM to 10:44 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 10:45 AM to 10:49 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 06/11/2023, Time : [ 10:50 AM to 10:54 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 15/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
-  </si>
-  <si>
-    <t>15/11/2023</t>
-  </si>
-  <si>
-    <t>voice_record_15112023</t>
-  </si>
-  <si>
-    <t>Appointment Date : 15/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 15/11/2023, Time : [ 09:20 AM to 09:24 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 15/11/2023, Time : [ 09:25 AM to 09:29 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 15/11/2023, Time : [ 09:30 AM to 09:34 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 15/11/2023, Time : [ 09:35 AM to 09:39 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 15/11/2023, Time : [ 09:40 AM to 09:44 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 15/11/2023, Time : [ 09:45 AM to 09:49 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 15/11/2023, Time : [ 09:50 AM to 09:54 AM ]</t>
-  </si>
-  <si>
-    <t>formshow_15112023</t>
-  </si>
-  <si>
-    <t>Appointment Date : 16/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
-  </si>
-  <si>
-    <t>16/11/2023</t>
-  </si>
-  <si>
     <t>voice_record_16112023</t>
   </si>
   <si>
     <t>formshow_16112023</t>
   </si>
   <si>
-    <t>Appointment Date : 16/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 16/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 20/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 20/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 21/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 21/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
-  </si>
-  <si>
-    <t>21/11/2023</t>
-  </si>
-  <si>
-    <t>Appointment Date : 22/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 21/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 22/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
-  </si>
-  <si>
     <t>22/11/2023</t>
   </si>
   <si>
-    <t>Appointment Date : 22/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+    <t>Appointment Date : 22/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>Book an appointment</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 09:20 AM to 09:24 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 09:30 AM to 09:34 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 09:35 AM to 09:39 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 09:40 AM to 09:44 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 09:50 AM to 09:54 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 09:55 AM to 09:59 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 10:00 AM to 10:04 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 10:05 AM to 10:09 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 10:10 AM to 10:14 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 24/11/2023, Time : [ 10:20 AM to 10:24 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 27/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+  </si>
+  <si>
+    <t>27/11/2023</t>
+  </si>
+  <si>
+    <t>voice_record_27112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 27/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 27/11/2023, Time : [ 09:20 AM to 09:24 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 27/11/2023, Time : [ 09:25 AM to 09:29 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 28/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>28/11/2023</t>
+  </si>
+  <si>
+    <t>voice_record_28112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 28/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>formshow_28112023</t>
   </si>
 </sst>
 </file>
@@ -767,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -967,16 +916,16 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>45</v>
@@ -1006,7 +955,7 @@
         <v>50</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>51</v>
@@ -1048,7 +997,7 @@
         <v>56</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="AC2" t="s" s="0">
         <v>58</v>
@@ -1060,7 +1009,7 @@
         <v>59</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH2" t="s" s="0">
         <v>67</v>
@@ -1078,7 +1027,7 @@
         <v>72</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="0">
         <v>81</v>
@@ -1093,7 +1042,7 @@
         <v>61</v>
       </c>
       <c r="AR2" t="s" s="0">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AS2" t="s" s="0">
         <v>57</v>
@@ -1102,7 +1051,7 @@
         <v>65</v>
       </c>
       <c r="AU2" t="s" s="0">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AV2" s="3" t="s">
         <v>74</v>
